--- a/3_output/sensitivity_hwws/highqual/metareg_hw_s1.xlsx
+++ b/3_output/sensitivity_hwws/highqual/metareg_hw_s1.xlsx
@@ -2277,44 +2277,44 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>33.0645009935944</v>
+        <v>28.105600466276041</v>
       </c>
       <c r="B2">
-        <v>88.169796899009739</v>
+        <v>70.157583374611974</v>
       </c>
       <c r="C2">
-        <v>80.22887305747247</v>
+        <v>56.251731650271928</v>
       </c>
       <c r="D2">
-        <v>87.084575413212178</v>
+        <v>70.645266700348003</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>5.3074725899900002e-06</v>
+        <v>0.020925124405678799</v>
       </c>
       <c r="B3">
-        <v>0.25467761338385692</v>
+        <v>0.0710638683713994</v>
       </c>
       <c r="C3">
-        <v>0.18911221667015141</v>
+        <v>0.23629475331008051</v>
       </c>
       <c r="D3">
-        <v>0.72410090485732348</v>
+        <v>0.86636236422748147</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>79.959513655713622</v>
+        <v>56.783979394307707</v>
       </c>
       <c r="B4">
-        <v>88.354606149980768</v>
+        <v>74.327130587935031</v>
       </c>
       <c r="C4">
-        <v>79.959513655713622</v>
+        <v>56.783979394307707</v>
       </c>
       <c r="D4">
-        <v>88.354606149980768</v>
+        <v>74.327130587935031</v>
       </c>
     </row>
     <row r="6">
@@ -2325,10 +2325,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="3">
-        <v>0.48815392035483696</v>
+        <v>0.33149937252364453</v>
       </c>
       <c r="E6" s="4">
-        <v>-0.5475525546375235</v>
+        <v>-0.3856624808119844</v>
       </c>
       <c r="H6" s="37" t="s">
         <v>1</v>
@@ -2337,10 +2337,10 @@
         <v>0</v>
       </c>
       <c r="J6" s="39">
-        <v>0.22994301588943839</v>
+        <v>0.28177449679853417</v>
       </c>
       <c r="K6" s="40">
-        <v>-0.48520937651301588</v>
+        <v>-0.43670407144539469</v>
       </c>
       <c r="N6" s="73" t="s">
         <v>1</v>
@@ -2349,10 +2349,10 @@
         <v>0</v>
       </c>
       <c r="P6" s="75">
-        <v>0.20443514620649728</v>
+        <v>0.11817813159322786</v>
       </c>
       <c r="Q6" s="76">
-        <v>-0.26116804294816265</v>
+        <v>-0.13864091580436691</v>
       </c>
       <c r="T6" s="109" t="s">
         <v>1</v>
@@ -2361,10 +2361,10 @@
         <v>0</v>
       </c>
       <c r="V6" s="111">
-        <v>-0.066456150771194308</v>
+        <v>-0.025652946367029982</v>
       </c>
       <c r="W6" s="112">
-        <v>-0.29886045616713253</v>
+        <v>-0.2259349255074429</v>
       </c>
     </row>
     <row r="7">
@@ -2373,40 +2373,40 @@
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="7">
-        <v>0.10723350291055024</v>
+        <v>0.14354768686442793</v>
       </c>
       <c r="E7" s="8">
-        <v>0.10062235915749876</v>
+        <v>0.13968573450881611</v>
       </c>
       <c r="H7" s="41" t="s">
         <v>2</v>
       </c>
       <c r="I7" s="42"/>
       <c r="J7" s="43">
-        <v>0.20187063545084696</v>
+        <v>0.15610177775724127</v>
       </c>
       <c r="K7" s="44">
-        <v>0.16496352063532874</v>
+        <v>0.1310106793164402</v>
       </c>
       <c r="N7" s="77" t="s">
         <v>2</v>
       </c>
       <c r="O7" s="78"/>
       <c r="P7" s="79">
-        <v>0.15567590568432271</v>
+        <v>0.09978741757422388</v>
       </c>
       <c r="Q7" s="80">
-        <v>0.098385095832831518</v>
+        <v>0.065365837973986055</v>
       </c>
       <c r="T7" s="113" t="s">
         <v>2</v>
       </c>
       <c r="U7" s="114"/>
       <c r="V7" s="115">
-        <v>0.18826991765664416</v>
+        <v>0.15244129888383148</v>
       </c>
       <c r="W7" s="116">
-        <v>0.13265359037659313</v>
+        <v>0.10553524969053101</v>
       </c>
     </row>
     <row r="8">
@@ -2415,40 +2415,40 @@
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="11">
-        <v>4.5522519278516418</v>
+        <v>2.3093327364914322</v>
       </c>
       <c r="E8" s="12">
-        <v>-5.4416588839908728</v>
+        <v>-2.7609296122335509</v>
       </c>
       <c r="H8" s="45" t="s">
         <v>3</v>
       </c>
       <c r="I8" s="46"/>
       <c r="J8" s="47">
-        <v>1.1390612377867444</v>
+        <v>1.8050691084167565</v>
       </c>
       <c r="K8" s="48">
-        <v>-2.9413131742358254</v>
+        <v>-3.3333471265391248</v>
       </c>
       <c r="N8" s="81" t="s">
         <v>3</v>
       </c>
       <c r="O8" s="82"/>
       <c r="P8" s="83">
-        <v>1.313209936424252</v>
+        <v>1.184298927320417</v>
       </c>
       <c r="Q8" s="84">
-        <v>-2.654548849471261</v>
+        <v>-2.1209995940011122</v>
       </c>
       <c r="T8" s="117" t="s">
         <v>3</v>
       </c>
       <c r="U8" s="118"/>
       <c r="V8" s="119">
-        <v>-0.35298337407462627</v>
+        <v>-0.16828081730383912</v>
       </c>
       <c r="W8" s="120">
-        <v>-2.2529390672253284</v>
+        <v>-2.140847974207376</v>
       </c>
     </row>
     <row r="9">
@@ -2457,40 +2457,40 @@
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="15">
-        <v>5.3074725899922288e-06</v>
+        <v>0.020925124405678765</v>
       </c>
       <c r="E9" s="16">
-        <v>5.2786682446363135e-08</v>
+        <v>0.0057637096922955192</v>
       </c>
       <c r="H9" s="49" t="s">
         <v>4</v>
       </c>
       <c r="I9" s="50"/>
       <c r="J9" s="51">
-        <v>0.2546776133838568</v>
+        <v>0.0710638683713994</v>
       </c>
       <c r="K9" s="52">
-        <v>0.0032682392446410644</v>
+        <v>0.00085807812142856899</v>
       </c>
       <c r="N9" s="85" t="s">
         <v>4</v>
       </c>
       <c r="O9" s="86"/>
       <c r="P9" s="87">
-        <v>0.18911221667015141</v>
+        <v>0.2362947533100804</v>
       </c>
       <c r="Q9" s="88">
-        <v>0.0079414540276619965</v>
+        <v>0.033921836590658228</v>
       </c>
       <c r="T9" s="121" t="s">
         <v>4</v>
       </c>
       <c r="U9" s="122"/>
       <c r="V9" s="123">
-        <v>0.72410090485732359</v>
+        <v>0.86636236422748159</v>
       </c>
       <c r="W9" s="124">
-        <v>0.024262991163200586</v>
+        <v>0.032286299766617607</v>
       </c>
     </row>
     <row r="10">
@@ -2499,40 +2499,40 @@
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="19">
-        <v>0.27798011671408746</v>
+        <v>0.050151076205332434</v>
       </c>
       <c r="E10" s="20">
-        <v>-0.74476875462567516</v>
+        <v>-0.65944148960328763</v>
       </c>
       <c r="H10" s="53" t="s">
         <v>5</v>
       </c>
       <c r="I10" s="54"/>
       <c r="J10" s="55">
-        <v>-0.1657161591304363</v>
+        <v>-0.024179365528334384</v>
       </c>
       <c r="K10" s="56">
-        <v>-0.8085319357211902</v>
+        <v>-0.69348028449574406</v>
       </c>
       <c r="N10" s="89" t="s">
         <v>5</v>
       </c>
       <c r="O10" s="90"/>
       <c r="P10" s="91">
-        <v>-0.10068402219542949</v>
+        <v>-0.077401612962510177</v>
       </c>
       <c r="Q10" s="92">
-        <v>-0.45399928739603412</v>
+        <v>-0.26675560405266019</v>
       </c>
       <c r="T10" s="125" t="s">
         <v>5</v>
       </c>
       <c r="U10" s="126"/>
       <c r="V10" s="127">
-        <v>-0.43545840875053843</v>
+        <v>-0.32443240193584561</v>
       </c>
       <c r="W10" s="128">
-        <v>-0.55885671572518414</v>
+        <v>-0.43278021400032551</v>
       </c>
     </row>
     <row r="11">
@@ -2541,40 +2541,40 @@
       </c>
       <c r="C11" s="22"/>
       <c r="D11" s="23">
-        <v>0.69832772399558651</v>
+        <v>0.61284766884195663</v>
       </c>
       <c r="E11" s="24">
-        <v>-0.35033635464937185</v>
+        <v>-0.11188347202068111</v>
       </c>
       <c r="H11" s="57" t="s">
         <v>6</v>
       </c>
       <c r="I11" s="58"/>
       <c r="J11" s="59">
-        <v>0.62560219090931302</v>
+        <v>0.58772835912540278</v>
       </c>
       <c r="K11" s="60">
-        <v>-0.16188681730484156</v>
+        <v>-0.17992785839504533</v>
       </c>
       <c r="N11" s="93" t="s">
         <v>6</v>
       </c>
       <c r="O11" s="94"/>
       <c r="P11" s="95">
-        <v>0.50955431460842404</v>
+        <v>0.31375787614896589</v>
       </c>
       <c r="Q11" s="96">
-        <v>-0.068336798500291146</v>
+        <v>-0.010526227556073631</v>
       </c>
       <c r="T11" s="129" t="s">
         <v>6</v>
       </c>
       <c r="U11" s="130"/>
       <c r="V11" s="131">
-        <v>0.30254610720814978</v>
+        <v>0.27312650920178566</v>
       </c>
       <c r="W11" s="132">
-        <v>-0.038864196609080914</v>
+        <v>-0.019089637014560262</v>
       </c>
     </row>
     <row r="12">
